--- a/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.83885020206404</v>
+        <v>0.16114979793596</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9960633491084701</v>
+        <v>0.0039366508915299</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">

--- a/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,25 +579,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.470000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.166325136612022</v>
+        <v>-0.149897400820793</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.282967607877112</v>
+        <v>-0.27688710040959</v>
       </c>
       <c r="M2" t="n">
-        <v>0.102882098637869</v>
+        <v>0.107168689096305</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.9636970084064</v>
+        <v>-1.78237099668006</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.211413297225894</v>
+        <v>0.0588096890395532</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.358490566037736</v>
+        <v>0.377358490566038</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000291733226837</v>
+        <v>0.0008287013443288</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0003413551401869</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0012169161546644</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4586661341853</v>
+        <v>3.94619687775657</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.528247444368512</v>
+        <v>0.0279650226665659</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="H4" t="n">
-        <v>0.795454545454545</v>
+        <v>0.773584905660377</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>20.7327758221434</v>
       </c>
       <c r="L4" t="n">
-        <v>-19.2012808494366</v>
+        <v>3.30180824450497</v>
       </c>
       <c r="M4" t="n">
-        <v>19.0151843817787</v>
+        <v>46.7929133535552</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>17.2773131851195</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.13820485307561</v>
+        <v>0.0012794330537947</v>
       </c>
       <c r="G5" t="n">
-        <v>0.538461538461538</v>
+        <v>0.471698113207547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.442307692307692</v>
+        <v>0.528301886792453</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005</v>
+        <v>0.0113672845527755</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0027162191484919</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.006274130593707</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>23.895057222164</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,21 +929,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.447525186814231</v>
+        <v>0.0013607781251607</v>
       </c>
       <c r="G6" t="n">
-        <v>0.245283018867925</v>
+        <v>0.188679245283019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39622641509434</v>
+        <v>0.377358490566038</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>0.006</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0008696428571428</v>
+        <v>0.0005014329635701</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008667389539267</v>
+        <v>0.0019730904361722</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>16.7239010989011</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.16114979793596</v>
+        <v>0.0041536812099195</v>
       </c>
       <c r="G7" t="n">
         <v>0.0188679245283019</v>
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.551</v>
+        <v>0.623</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0199408553230209</v>
+        <v>0.0696268198362147</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0063531690200007</v>
+        <v>0.0237949202063229</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0447792812048912</v>
+        <v>0.114032234404986</v>
       </c>
       <c r="N7" t="n">
-        <v>3.61903000417803</v>
+        <v>11.1760545483491</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0039366508915299</v>
+        <v>0.007800427951528</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.660377358490566</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.58</v>
+        <v>7.56</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0565505464480874</v>
+        <v>-0.0441376299874621</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.07985085359711119</v>
+        <v>-0.08117823765354611</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0220883491756091</v>
+        <v>-0.016297438812807</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.746049425436509</v>
+        <v>-0.583831084490239</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.105649773666855</v>
+        <v>0.0010987966487159</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8301886792452829</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0232855191256831</v>
+        <v>0.0905578512396694</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0067635896946332</v>
+        <v>0.0443361749211696</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0468942787608401</v>
+        <v>0.144946551401756</v>
       </c>
       <c r="N9" t="n">
-        <v>3.32650273224044</v>
+        <v>12.4051851013246</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.234140914680061</v>
+        <v>0.0004471631267326</v>
       </c>
       <c r="G10" t="n">
-        <v>0.264150943396226</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.471698113207547</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1.64</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.145698074277854</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.0465157781257331</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7348823769167649</v>
+        <v>0.190652472527473</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>8.88402891938135</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0919689150570004</v>
+        <v>0.0001597390115868</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8301886792452829</v>
+        <v>0.811320754716981</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.55</v>
+        <v>0.04</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0199408553230209</v>
+        <v>0.0131263282259011</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0138798295228708</v>
+        <v>0.0067948753429859</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0447412379094474</v>
+        <v>0.0201079830256992</v>
       </c>
       <c r="N11" t="n">
-        <v>1.28650679503361</v>
+        <v>32.8158205647528</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1451,97 +1451,6 @@
         </is>
       </c>
       <c r="W11" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Koitiata at Beamish Rd</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.339272404516491</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.735849056603774</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0012135456956203</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-0.0030988873692792</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.0059489306476366</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.19354130426417</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>1785275</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5558196</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Southern Whanganui Lakes</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>West_5</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
+++ b/trend_results/Rivers/KoitiataatBeamishRd_04a690cae2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>site name</t>
   </si>
@@ -127,19 +127,16 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -612,31 +609,31 @@
         <v>34</v>
       </c>
       <c r="F2">
-        <v>0.16114979793596</v>
+        <v>0.359173879173944</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.962264150943396</v>
+        <v>0.96</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.41</v>
+        <v>8.475</v>
       </c>
       <c r="K2">
-        <v>-0.149897400820793</v>
+        <v>-0.0702403846153849</v>
       </c>
       <c r="L2">
-        <v>-0.27688710040959</v>
+        <v>-0.235319030013701</v>
       </c>
       <c r="M2">
-        <v>0.107168689096305</v>
+        <v>0.0764732614608829</v>
       </c>
       <c r="N2">
-        <v>-1.78237099668006</v>
+        <v>-0.8287950987066059</v>
       </c>
       <c r="O2" t="s">
         <v>36</v>
@@ -651,19 +648,19 @@
         <v>5558196</v>
       </c>
       <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -683,31 +680,31 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>0.0588096890395532</v>
+        <v>0.120205800831386</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.377358490566038</v>
+        <v>0.44</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
-        <v>0.0008287013443288</v>
+        <v>0.0008396551724137</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-0.0002920859195634</v>
       </c>
       <c r="M3">
-        <v>0.0020068681318681</v>
+        <v>0.0021347844325222</v>
       </c>
       <c r="N3">
-        <v>3.94619687775657</v>
+        <v>4.19827586206897</v>
       </c>
       <c r="O3" t="s">
         <v>36</v>
@@ -722,19 +719,19 @@
         <v>5558196</v>
       </c>
       <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="V3" t="s">
-        <v>45</v>
-      </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -754,31 +751,31 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>0.0279650226665659</v>
+        <v>0.0138676500717815</v>
       </c>
       <c r="G4">
-        <v>0.0377358490566038</v>
+        <v>0.04</v>
       </c>
       <c r="H4">
-        <v>0.773584905660377</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>120</v>
+        <v>138.2</v>
       </c>
       <c r="K4">
-        <v>20.7327758221434</v>
+        <v>29.7752948885976</v>
       </c>
       <c r="L4">
-        <v>3.30180824450497</v>
+        <v>7.0951299330581</v>
       </c>
       <c r="M4">
-        <v>46.7929133535552</v>
+        <v>54.3494849287771</v>
       </c>
       <c r="N4">
-        <v>17.2773131851195</v>
+        <v>21.5450758962356</v>
       </c>
       <c r="O4" t="s">
         <v>36</v>
@@ -793,19 +790,19 @@
         <v>5558196</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>44</v>
       </c>
-      <c r="V4" t="s">
-        <v>45</v>
-      </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,37 +822,37 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>0.0012794330537947</v>
+        <v>0.0449871183219848</v>
       </c>
       <c r="G5">
-        <v>0.471698113207547</v>
+        <v>0.44</v>
       </c>
       <c r="H5">
-        <v>0.528301886792453</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0113672845527755</v>
+        <v>0.0141805833619513</v>
       </c>
       <c r="K5">
-        <v>0.0027162191484919</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.006274130593707</v>
+        <v>0.0062320008389566</v>
       </c>
       <c r="N5">
-        <v>23.895057222164</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>1785275</v>
@@ -864,19 +861,19 @@
         <v>5558196</v>
       </c>
       <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>44</v>
       </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -896,31 +893,31 @@
         <v>34</v>
       </c>
       <c r="F6">
-        <v>0.0013607781251607</v>
+        <v>0.0016761681734239</v>
       </c>
       <c r="G6">
-        <v>0.188679245283019</v>
+        <v>0.14</v>
       </c>
       <c r="H6">
-        <v>0.377358490566038</v>
+        <v>0.48</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.006</v>
+        <v>0.0075</v>
       </c>
       <c r="K6">
         <v>0.001003434065934</v>
       </c>
       <c r="L6">
-        <v>0.0005014329635701</v>
+        <v>0.0009911280157008</v>
       </c>
       <c r="M6">
-        <v>0.0019730904361722</v>
+        <v>0.0019955854450956</v>
       </c>
       <c r="N6">
-        <v>16.7239010989011</v>
+        <v>13.3791208791209</v>
       </c>
       <c r="O6" t="s">
         <v>36</v>
@@ -935,19 +932,19 @@
         <v>5558196</v>
       </c>
       <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
         <v>42</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -964,34 +961,34 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>0.0041536812099195</v>
+        <v>0.0057902669183358</v>
       </c>
       <c r="G7">
-        <v>0.0188679245283019</v>
+        <v>0.02</v>
       </c>
       <c r="H7">
-        <v>0.943396226415094</v>
+        <v>0.98</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.623</v>
+        <v>0.607</v>
       </c>
       <c r="K7">
-        <v>0.0696268198362147</v>
+        <v>0.0718188202247191</v>
       </c>
       <c r="L7">
-        <v>0.0237949202063229</v>
+        <v>0.0351153430262895</v>
       </c>
       <c r="M7">
-        <v>0.114032234404986</v>
+        <v>0.128572316230469</v>
       </c>
       <c r="N7">
-        <v>11.1760545483491</v>
+        <v>11.8317660996242</v>
       </c>
       <c r="O7" t="s">
         <v>36</v>
@@ -1006,19 +1003,19 @@
         <v>5558196</v>
       </c>
       <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" t="s">
         <v>42</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>44</v>
       </c>
-      <c r="V7" t="s">
-        <v>45</v>
-      </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1038,13 +1035,13 @@
         <v>34</v>
       </c>
       <c r="F8">
-        <v>0.007800427951528</v>
+        <v>0.6279567277916041</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.679245283018868</v>
+        <v>0.72</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1053,22 +1050,22 @@
         <v>7.56</v>
       </c>
       <c r="K8">
-        <v>-0.0441376299874621</v>
+        <v>0.0071337890625004</v>
       </c>
       <c r="L8">
-        <v>-0.08117823765354611</v>
+        <v>-0.032907824897791</v>
       </c>
       <c r="M8">
-        <v>-0.016297438812807</v>
+        <v>0.0473393804822086</v>
       </c>
       <c r="N8">
-        <v>-0.583831084490239</v>
+        <v>0.09436228918651431</v>
       </c>
       <c r="O8" t="s">
         <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q8">
         <v>1785275</v>
@@ -1077,16 +1074,16 @@
         <v>5558196</v>
       </c>
       <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
         <v>42</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>44</v>
-      </c>
-      <c r="V8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1106,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>0.0010987966487159</v>
+        <v>0.0019549381602559</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.867924528301887</v>
+        <v>0.88</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1121,16 +1118,16 @@
         <v>0.73</v>
       </c>
       <c r="K9">
-        <v>0.0905578512396694</v>
+        <v>0.0873803827751196</v>
       </c>
       <c r="L9">
-        <v>0.0443361749211696</v>
+        <v>0.0418783909730158</v>
       </c>
       <c r="M9">
-        <v>0.144946551401756</v>
+        <v>0.154375717612453</v>
       </c>
       <c r="N9">
-        <v>12.4051851013246</v>
+        <v>11.9699154486465</v>
       </c>
       <c r="O9" t="s">
         <v>36</v>
@@ -1145,19 +1142,19 @@
         <v>5558196</v>
       </c>
       <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
         <v>42</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>44</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>45</v>
-      </c>
-      <c r="W9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1177,37 +1174,37 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.0004471631267326</v>
+        <v>0.0118057168907311</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.867924528301887</v>
+        <v>0.82</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="K10">
-        <v>0.145698074277854</v>
+        <v>0.152395690834473</v>
       </c>
       <c r="L10">
-        <v>0.0465157781257331</v>
+        <v>0.0351201923076923</v>
       </c>
       <c r="M10">
-        <v>0.190652472527473</v>
+        <v>0.212292423874284</v>
       </c>
       <c r="N10">
-        <v>8.88402891938135</v>
+        <v>8.964452402027851</v>
       </c>
       <c r="O10" t="s">
         <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>1785275</v>
@@ -1216,19 +1213,19 @@
         <v>5558196</v>
       </c>
       <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
         <v>42</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>44</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>45</v>
-      </c>
-      <c r="W10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1248,37 +1245,37 @@
         <v>34</v>
       </c>
       <c r="F11">
-        <v>0.0001597390115868</v>
+        <v>0.0209990956022001</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.811320754716981</v>
+        <v>0.82</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="K11">
-        <v>0.0131263282259011</v>
+        <v>0.009519063706563699</v>
       </c>
       <c r="L11">
-        <v>0.0067948753429859</v>
+        <v>0.0011654044451252</v>
       </c>
       <c r="M11">
-        <v>0.0201079830256992</v>
+        <v>0.0196494205454574</v>
       </c>
       <c r="N11">
-        <v>32.8158205647528</v>
+        <v>21.1534749034749</v>
       </c>
       <c r="O11" t="s">
         <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11">
         <v>1785275</v>
@@ -1287,19 +1284,19 @@
         <v>5558196</v>
       </c>
       <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
         <v>42</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>44</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
